--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H2">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I2">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J2">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.87998551349961</v>
+        <v>0.353194</v>
       </c>
       <c r="N2">
-        <v>1.87998551349961</v>
+        <v>1.059582</v>
       </c>
       <c r="O2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q2">
-        <v>1.471943896577886</v>
+        <v>0.02018974635333334</v>
       </c>
       <c r="R2">
-        <v>1.471943896577886</v>
+        <v>0.18170771718</v>
       </c>
       <c r="S2">
-        <v>0.08868751543595635</v>
+        <v>0.001087880931671399</v>
       </c>
       <c r="T2">
-        <v>0.08868751543595635</v>
+        <v>0.001087880931671399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H3">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I3">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J3">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204035667047674</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N3">
-        <v>0.204035667047674</v>
+        <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q3">
-        <v>0.1597507282042595</v>
+        <v>0.1080550677677778</v>
       </c>
       <c r="R3">
-        <v>0.1597507282042595</v>
+        <v>0.9724956099100001</v>
       </c>
       <c r="S3">
-        <v>0.009625295642353891</v>
+        <v>0.005822314244954271</v>
       </c>
       <c r="T3">
-        <v>0.009625295642353891</v>
+        <v>0.005822314244954271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7829549142843391</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H4">
-        <v>0.7829549142843391</v>
+        <v>0.17149</v>
       </c>
       <c r="I4">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J4">
-        <v>0.9379832338728884</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.7992158558983</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N4">
-        <v>17.7992158558983</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q4">
-        <v>13.9359835247833</v>
+        <v>0.01287396389888889</v>
       </c>
       <c r="R4">
-        <v>13.9359835247833</v>
+        <v>0.11586567509</v>
       </c>
       <c r="S4">
-        <v>0.839670422794578</v>
+        <v>0.0006936857747256894</v>
       </c>
       <c r="T4">
-        <v>0.839670422794578</v>
+        <v>0.0006936857747256894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0517667374572973</v>
+        <v>0.05716333333333334</v>
       </c>
       <c r="H5">
-        <v>0.0517667374572973</v>
+        <v>0.17149</v>
       </c>
       <c r="I5">
-        <v>0.06201676612711152</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="J5">
-        <v>0.06201676612711152</v>
+        <v>0.06272049459548226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87998551349961</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N5">
-        <v>1.87998551349961</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q5">
-        <v>0.09732071650085655</v>
+        <v>1.022897283087778</v>
       </c>
       <c r="R5">
-        <v>0.09732071650085655</v>
+        <v>9.206075547790002</v>
       </c>
       <c r="S5">
-        <v>0.005863764622397984</v>
+        <v>0.0551166136441309</v>
       </c>
       <c r="T5">
-        <v>0.005863764622397984</v>
+        <v>0.0551166136441309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0517667374572973</v>
+        <v>0.7939349999999999</v>
       </c>
       <c r="H6">
-        <v>0.0517667374572973</v>
+        <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.06201676612711152</v>
+        <v>0.871117777304756</v>
       </c>
       <c r="J6">
-        <v>0.06201676612711152</v>
+        <v>0.8711177773047561</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.204035667047674</v>
+        <v>0.353194</v>
       </c>
       <c r="N6">
-        <v>0.204035667047674</v>
+        <v>1.059582</v>
       </c>
       <c r="O6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q6">
-        <v>0.01056226080798147</v>
+        <v>0.28041307839</v>
       </c>
       <c r="R6">
-        <v>0.01056226080798147</v>
+        <v>2.52371770551</v>
       </c>
       <c r="S6">
-        <v>0.0006363969921844684</v>
+        <v>0.01510945386004779</v>
       </c>
       <c r="T6">
-        <v>0.0006363969921844684</v>
+        <v>0.01510945386004779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0517667374572973</v>
+        <v>0.7939349999999999</v>
       </c>
       <c r="H7">
-        <v>0.0517667374572973</v>
+        <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.06201676612711152</v>
+        <v>0.871117777304756</v>
       </c>
       <c r="J7">
-        <v>0.06201676612711152</v>
+        <v>0.8711177773047561</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7992158558983</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N7">
-        <v>17.7992158558983</v>
+        <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q7">
-        <v>0.9214073341580505</v>
+        <v>1.500764480055</v>
       </c>
       <c r="R7">
-        <v>0.9214073341580505</v>
+        <v>13.506880320495</v>
       </c>
       <c r="S7">
-        <v>0.05551660451252906</v>
+        <v>0.08086545676251272</v>
       </c>
       <c r="T7">
-        <v>0.05551660451252906</v>
+        <v>0.08086545676251272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7939349999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.381805</v>
+      </c>
+      <c r="I8">
+        <v>0.871117777304756</v>
+      </c>
+      <c r="J8">
+        <v>0.8711177773047561</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P8">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q8">
+        <v>0.178805012445</v>
+      </c>
+      <c r="R8">
+        <v>1.609245112005</v>
+      </c>
+      <c r="S8">
+        <v>0.009634522401717419</v>
+      </c>
+      <c r="T8">
+        <v>0.009634522401717421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7939349999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.381805</v>
+      </c>
+      <c r="I9">
+        <v>0.871117777304756</v>
+      </c>
+      <c r="J9">
+        <v>0.8711177773047561</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N9">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P9">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q9">
+        <v>14.206903395795</v>
+      </c>
+      <c r="R9">
+        <v>127.862130562155</v>
+      </c>
+      <c r="S9">
+        <v>0.7655083442804781</v>
+      </c>
+      <c r="T9">
+        <v>0.7655083442804782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003934</v>
+      </c>
+      <c r="H10">
+        <v>0.011802</v>
+      </c>
+      <c r="I10">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J10">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.353194</v>
+      </c>
+      <c r="N10">
+        <v>1.059582</v>
+      </c>
+      <c r="O10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q10">
+        <v>0.001389465196</v>
+      </c>
+      <c r="R10">
+        <v>0.012505186764</v>
+      </c>
+      <c r="S10">
+        <v>7.486833492090411E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.486833492090412E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.003934</v>
+      </c>
+      <c r="H11">
+        <v>0.011802</v>
+      </c>
+      <c r="I11">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J11">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.670859</v>
+      </c>
+      <c r="O11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q11">
+        <v>0.007436386435333333</v>
+      </c>
+      <c r="R11">
+        <v>0.06692747791799999</v>
+      </c>
+      <c r="S11">
+        <v>0.000400693642305384</v>
+      </c>
+      <c r="T11">
+        <v>0.000400693642305384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.003934</v>
+      </c>
+      <c r="H12">
+        <v>0.011802</v>
+      </c>
+      <c r="I12">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J12">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q12">
+        <v>0.0008859905646666666</v>
+      </c>
+      <c r="R12">
+        <v>0.007973915081999999</v>
+      </c>
+      <c r="S12">
+        <v>4.773969043858292E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.773969043858293E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003934</v>
+      </c>
+      <c r="H13">
+        <v>0.011802</v>
+      </c>
+      <c r="I13">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="J13">
+        <v>0.004316445724041528</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N13">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q13">
+        <v>0.07039613817133333</v>
+      </c>
+      <c r="R13">
+        <v>0.6335652435420001</v>
+      </c>
+      <c r="S13">
+        <v>0.003793144056376656</v>
+      </c>
+      <c r="T13">
+        <v>0.003793144056376657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.169097</v>
+      </c>
+      <c r="I14">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J14">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.353194</v>
+      </c>
+      <c r="N14">
+        <v>1.059582</v>
+      </c>
+      <c r="O14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q14">
+        <v>0.01990801527266667</v>
+      </c>
+      <c r="R14">
+        <v>0.179172137454</v>
+      </c>
+      <c r="S14">
+        <v>0.001072700460101688</v>
+      </c>
+      <c r="T14">
+        <v>0.001072700460101688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.169097</v>
+      </c>
+      <c r="I15">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J15">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.670859</v>
+      </c>
+      <c r="O15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q15">
+        <v>0.1065472493692222</v>
+      </c>
+      <c r="R15">
+        <v>0.958925244323</v>
+      </c>
+      <c r="S15">
+        <v>0.005741068703009109</v>
+      </c>
+      <c r="T15">
+        <v>0.00574106870300911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.169097</v>
+      </c>
+      <c r="I16">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J16">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q16">
+        <v>0.01269431846411111</v>
+      </c>
+      <c r="R16">
+        <v>0.114248866177</v>
+      </c>
+      <c r="S16">
+        <v>0.0006840059679794151</v>
+      </c>
+      <c r="T16">
+        <v>0.0006840059679794151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.05636566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.169097</v>
+      </c>
+      <c r="I17">
+        <v>0.06184528237572023</v>
+      </c>
+      <c r="J17">
+        <v>0.06184528237572024</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N17">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q17">
+        <v>1.008623604165222</v>
+      </c>
+      <c r="R17">
+        <v>9.077612437487002</v>
+      </c>
+      <c r="S17">
+        <v>0.05434750724463002</v>
+      </c>
+      <c r="T17">
+        <v>0.05434750724463003</v>
       </c>
     </row>
   </sheetData>
